--- a/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2022/ifoCAst_errors_filtered_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2022/ifoCAst_errors_filtered_latest_since_2022.xlsx
@@ -618,7 +618,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D14">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -629,7 +629,10 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C15">
-        <v>0.3054124294241067</v>
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D15">
+        <v>0.597740902</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -637,7 +640,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.05603945542410671</v>
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C16">
+        <v>0.042359665</v>
       </c>
     </row>
   </sheetData>
